--- a/resultOzon.xlsx
+++ b/resultOzon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>DateCreated</t>
   </si>
@@ -28,10 +28,76 @@
     <t>itemsSku</t>
   </si>
   <si>
-    <t>UserStatus</t>
-  </si>
-  <si>
     <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>2021-12-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-26 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-18 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-26 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-24 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>Футболка утепленная из футера RESIZE New Brand, оверсайз</t>
+  </si>
+  <si>
+    <t>Велосипедки спортивные RESIZE, из силка</t>
+  </si>
+  <si>
+    <t>Боди с длинным рукавом и открытым плечом RESIZE, из лапши</t>
+  </si>
+  <si>
+    <t>Костюм спортивный RESIZE, кроп-топ водолазка и брюки палаццо из лапши</t>
+  </si>
+  <si>
+    <t>Футболка укороченная однотонная с ассиметричным кроем RESIZE, кулирная гладь</t>
+  </si>
+  <si>
+    <t>Костюм спортивный RESIZE, лонгслив с воротником-стойкой и леггинсы со штрипками лапши</t>
+  </si>
+  <si>
+    <t>Костюм спортивный RESIZE, кроп-топ и леггинсы из лапши</t>
+  </si>
+  <si>
+    <t>Женский утягивающий прозрачный сетчатый пояс корсет с поддержкой груди, со шнуровкой на спине</t>
   </si>
 </sst>
 </file>
@@ -389,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +477,277 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2">
+        <v>11425414544660</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>398952175</v>
+      </c>
+      <c r="E2">
+        <v>1539.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>11435975388810</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>405446619</v>
+      </c>
+      <c r="E3">
+        <v>809.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>11436387917770</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>426233655</v>
+      </c>
+      <c r="E4">
+        <v>1591.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>11439483014950</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>396739618</v>
+      </c>
+      <c r="E5">
+        <v>3469.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>11443938299250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>396913473</v>
+      </c>
+      <c r="E6">
+        <v>3467.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>11453173512700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>455742961</v>
+      </c>
+      <c r="E7">
+        <v>1073.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>11452716861630</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>426304466</v>
+      </c>
+      <c r="E8">
+        <v>1586.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11454174430980</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>444736077</v>
+      </c>
+      <c r="E9">
+        <v>766.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>11454849354380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>428048504</v>
+      </c>
+      <c r="E10">
+        <v>1501.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>11459982984980</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>396895940</v>
+      </c>
+      <c r="E11">
+        <v>3396.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>11461395392330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>402773224</v>
+      </c>
+      <c r="E12">
+        <v>2901.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>11458668157130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>426304466</v>
+      </c>
+      <c r="E13">
+        <v>1620.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>11462083774390</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>426256178</v>
+      </c>
+      <c r="E14">
+        <v>1620.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>11460959830830</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>444893324</v>
+      </c>
+      <c r="E15">
+        <v>2154.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>11469880508400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>466510902</v>
+      </c>
+      <c r="E16">
+        <v>955.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>11475686797780</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>426233655</v>
+      </c>
+      <c r="E17">
+        <v>1659.83</v>
       </c>
     </row>
   </sheetData>

--- a/resultOzon.xlsx
+++ b/resultOzon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>DateCreated</t>
   </si>
@@ -31,6 +31,15 @@
     <t>TotalPrice</t>
   </si>
   <si>
+    <t>totalCommission</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>warehouseId</t>
+  </si>
+  <si>
     <t>2021-12-08 00:00:00</t>
   </si>
   <si>
@@ -98,6 +107,54 @@
   </si>
   <si>
     <t>Женский утягивающий прозрачный сетчатый пояс корсет с поддержкой груди, со шнуровкой на спине</t>
+  </si>
+  <si>
+    <t>2021-12-03 13:09:40</t>
+  </si>
+  <si>
+    <t>2021-12-16 20:54:13</t>
+  </si>
+  <si>
+    <t>2021-12-17 13:34:47</t>
+  </si>
+  <si>
+    <t>2021-12-21 10:45:23</t>
+  </si>
+  <si>
+    <t>2021-12-23 16:13:48</t>
+  </si>
+  <si>
+    <t>2022-01-08 07:16:52</t>
+  </si>
+  <si>
+    <t>2022-01-10 17:44:47</t>
+  </si>
+  <si>
+    <t>2022-01-10 21:28:03</t>
+  </si>
+  <si>
+    <t>2022-01-11 00:18:21</t>
+  </si>
+  <si>
+    <t>2022-01-18 15:54:09</t>
+  </si>
+  <si>
+    <t>2022-01-19 20:01:44</t>
+  </si>
+  <si>
+    <t>2022-01-19 22:53:34</t>
+  </si>
+  <si>
+    <t>2022-01-23 21:16:43</t>
+  </si>
+  <si>
+    <t>2022-01-25 12:31:53</t>
+  </si>
+  <si>
+    <t>2022-02-02 01:06:15</t>
+  </si>
+  <si>
+    <t>2022-02-10 14:57:29</t>
   </si>
 </sst>
 </file>
@@ -455,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,277 +534,430 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>11425414544660</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>398952175</v>
       </c>
       <c r="E2">
-        <v>1539.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1706</v>
+      </c>
+      <c r="F2">
+        <v>-85.3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>11435975388810</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>405446619</v>
       </c>
       <c r="E3">
-        <v>809.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>910</v>
+      </c>
+      <c r="F3">
+        <v>-45.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>11436387917770</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>426233655</v>
       </c>
       <c r="E4">
-        <v>1591.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1757</v>
+      </c>
+      <c r="F4">
+        <v>-87.84999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>11439483014950</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>396739618</v>
       </c>
       <c r="E5">
-        <v>3469.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4113.08</v>
+      </c>
+      <c r="F5">
+        <v>-461.28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>11443938299250</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>396913473</v>
       </c>
       <c r="E6">
-        <v>3467.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>3844</v>
+      </c>
+      <c r="F6">
+        <v>-192.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>11453173512700</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>455742961</v>
       </c>
       <c r="E7">
-        <v>1073.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1162.93</v>
+      </c>
+      <c r="F7">
+        <v>-32.43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>11452716861630</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>426304466</v>
       </c>
       <c r="E8">
-        <v>1586.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1757</v>
+      </c>
+      <c r="F8">
+        <v>-87.84999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>11454174430980</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>444736077</v>
       </c>
       <c r="E9">
-        <v>766.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>865</v>
+      </c>
+      <c r="F9">
+        <v>-43.25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>11454849354380</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>428048504</v>
       </c>
       <c r="E10">
-        <v>1501.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1664</v>
+      </c>
+      <c r="F10">
+        <v>-83.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>11459982984980</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>396895940</v>
       </c>
       <c r="E11">
-        <v>3396.88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3764</v>
+      </c>
+      <c r="F11">
+        <v>-188.2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>11461395392330</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>402773224</v>
       </c>
       <c r="E12">
-        <v>2901.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3213</v>
+      </c>
+      <c r="F12">
+        <v>-160.65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>11458668157130</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>426304466</v>
       </c>
       <c r="E13">
-        <v>1620.57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1795</v>
+      </c>
+      <c r="F13">
+        <v>-89.75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>11462083774390</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>426256178</v>
       </c>
       <c r="E14">
-        <v>1620.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1795</v>
+      </c>
+      <c r="F14">
+        <v>-89.75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>11460959830830</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>444893324</v>
       </c>
       <c r="E15">
-        <v>2154.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2388</v>
+      </c>
+      <c r="F15">
+        <v>-119.4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>11469880508400</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>466510902</v>
       </c>
       <c r="E16">
-        <v>955.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1111</v>
+      </c>
+      <c r="F16">
+        <v>-55.55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>22494152361000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>11475686797780</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>426233655</v>
       </c>
       <c r="E17">
-        <v>1659.83</v>
+        <v>1888</v>
+      </c>
+      <c r="F17">
+        <v>-94.40000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>22494152361000</v>
       </c>
     </row>
   </sheetData>
